--- a/NPN Tracer/NPN Tracer V1/NPN Tracer V1 BOM.xlsx
+++ b/NPN Tracer/NPN Tracer V1/NPN Tracer V1 BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hobbies\Projects\Hardware\KiCad\Transistor Tracer\NPN Tracer\NPN Tracer V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hobbies\Projects\My Working Kits\TransistorTracer\NPN Tracer\NPN Tracer V1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B9D767-D066-474A-9F60-972C483B134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BAB957-0CCF-4FB8-91E6-B4A63554DB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7785" yWindow="990" windowWidth="11850" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPN Tracer V1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>Component Count:</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Unpolarized capacitor</t>
   </si>
   <si>
-    <t xml:space="preserve">C4, C5, </t>
-  </si>
-  <si>
     <t>22u</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
   </si>
   <si>
     <t>Can use any high current transistor. TIP122, 2SC5706 with same TO-220 footprint at TIP120</t>
-  </si>
-  <si>
-    <t>Anything below 523R and around 500R. E.g. 475, 487,499, 511, 523</t>
   </si>
   <si>
     <t>This is for voltage regulator.  Anything around 10 or 20uF is adaquate.</t>
@@ -407,7 +401,25 @@
     <t>2 Watt resistor.  Measure the actual value with VOM and enter it during calibration</t>
   </si>
   <si>
-    <t>This resistor sets the gain of the LM358.  4.7K seems to be ok.  Might be a little too small (i.e. too much gain).  Calibration calculates the gain</t>
+    <t>C4,</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>This is for voltage regulator.  Anything around 1uF is adaquate.</t>
+  </si>
+  <si>
+    <t>Anything below 523R and around 500R. E.g. 475, 487,499, 511, 523.  Measure the actual value with VOM and enter it during calibration</t>
+  </si>
+  <si>
+    <t>Measure the actual value with VOM and enter it during calibration</t>
+  </si>
+  <si>
+    <t>This resistor sets the gain of the LM358.  4.7K seems to be ok.  Might be a little too small (i.e. too much gain).  Calibration command measures the gain</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1321,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -1328,7 +1340,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>5</v>
@@ -1354,7 +1366,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -1410,645 +1422,671 @@
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
+      <c r="C20" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>200</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>89</v>
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>200</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="2">
-        <v>500</v>
+      <c r="C25" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>499</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>499</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>500</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2">
-        <v>33</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2">
-        <v>10</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
         <v>200</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="H35" s="2"/>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H35">
-    <sortCondition ref="A5:A35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H36">
+    <sortCondition ref="A5:A36"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="E2:G2"/>
